--- a/branches/content-upates/ValueSet-vs-hiv-cause-of-death.xlsx
+++ b/branches/content-upates/ValueSet-vs-hiv-cause-of-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T10:47:46+00:00</t>
+    <t>2023-03-05T11:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/content-upates/ValueSet-vs-hiv-cause-of-death.xlsx
+++ b/branches/content-upates/ValueSet-vs-hiv-cause-of-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:22:11+00:00</t>
+    <t>2023-03-05T11:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/content-upates/ValueSet-vs-hiv-cause-of-death.xlsx
+++ b/branches/content-upates/ValueSet-vs-hiv-cause-of-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:37:19+00:00</t>
+    <t>2023-03-06T06:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/content-upates/ValueSet-vs-hiv-cause-of-death.xlsx
+++ b/branches/content-upates/ValueSet-vs-hiv-cause-of-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T06:39:05+00:00</t>
+    <t>2023-03-06T07:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/content-upates/ValueSet-vs-hiv-cause-of-death.xlsx
+++ b/branches/content-upates/ValueSet-vs-hiv-cause-of-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:13:58+00:00</t>
+    <t>2023-03-06T07:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
